--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e4dfee9e1e21b252/CMU/2025Fall/Advanced Relational Database Management - 95736A1/项目/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CMU\Adv_DB_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="8_{9F8D8833-CDF2-4494-8D78-C3F471C7E173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FECC3076-8457-4727-A8BD-0243F680F48A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11467345-27FE-44DE-A520-5F620211AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{FCC53EDD-4331-46A7-A917-0188D2B6CA69}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{FCC53EDD-4331-46A7-A917-0188D2B6CA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="369">
   <si>
     <t>Entity name</t>
   </si>
@@ -105,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Employs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1...N</t>
   </si>
   <si>
@@ -116,9 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Comprises</t>
-  </si>
-  <si>
     <t>Construction_Task</t>
   </si>
   <si>
@@ -128,75 +121,39 @@
     <t>0...N</t>
   </si>
   <si>
-    <t>Includes</t>
-  </si>
-  <si>
     <t>Decorator_Choice</t>
   </si>
   <si>
     <t>Option</t>
   </si>
   <si>
-    <t>Is Chosen In</t>
-  </si>
-  <si>
     <t>HouseTask</t>
   </si>
   <si>
-    <t>Has Session</t>
-  </si>
-  <si>
     <t>HouseStyle</t>
   </si>
   <si>
-    <t>Has</t>
-  </si>
-  <si>
     <t>Elevation</t>
   </si>
   <si>
-    <t>Is For</t>
-  </si>
-  <si>
     <t>House</t>
   </si>
   <si>
-    <t>Is Style For</t>
-  </si>
-  <si>
     <t>Lot</t>
   </si>
   <si>
     <t>0...1</t>
   </si>
   <si>
-    <t>Contains</t>
-  </si>
-  <si>
     <t>Employee</t>
   </si>
   <si>
-    <t>Performs</t>
-  </si>
-  <si>
-    <t>Requires</t>
-  </si>
-  <si>
     <t>Subdivision</t>
   </si>
   <si>
-    <t>Offers</t>
-  </si>
-  <si>
     <t>OptionCategory</t>
   </si>
   <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Has Price</t>
-  </si>
-  <si>
     <t>Option_Stage_Price</t>
   </si>
   <si>
@@ -209,37 +166,16 @@
     <t>Rooms</t>
   </si>
   <si>
-    <t>Defines</t>
-  </si>
-  <si>
-    <t>Handles</t>
-  </si>
-  <si>
     <t>Sale</t>
   </si>
   <si>
     <t>Buyer</t>
   </si>
   <si>
-    <t>Makes</t>
-  </si>
-  <si>
     <t>EscrowAgent</t>
   </si>
   <si>
-    <t>Manages</t>
-  </si>
-  <si>
-    <t>Is Sold In</t>
-  </si>
-  <si>
-    <t>Is Zoned For</t>
-  </si>
-  <si>
     <t>School</t>
-  </si>
-  <si>
-    <t>Has Progress</t>
   </si>
   <si>
     <t>HouseTask</t>
@@ -1170,13 +1106,94 @@
     <t>A foreign key that associates a stage with a broader, high-level house task or project phase.</t>
   </si>
   <si>
-    <t>Defines Stage For</t>
-  </si>
-  <si>
-    <t>Schedules</t>
-  </si>
-  <si>
-    <t>Sets Price For</t>
+    <t>employs_worker</t>
+  </si>
+  <si>
+    <t>includes_construction_task</t>
+  </si>
+  <si>
+    <t>creates_choice</t>
+  </si>
+  <si>
+    <t>used_in_choice</t>
+  </si>
+  <si>
+    <t>linked_to_decorator_session</t>
+  </si>
+  <si>
+    <t>defines_elevation</t>
+  </si>
+  <si>
+    <t>associated_with_house</t>
+  </si>
+  <si>
+    <t>applied_to_house</t>
+  </si>
+  <si>
+    <t>occupied_by_house</t>
+  </si>
+  <si>
+    <t>assigned_to_task</t>
+  </si>
+  <si>
+    <t>contains_task</t>
+  </si>
+  <si>
+    <t>comprises_lot</t>
+  </si>
+  <si>
+    <t>offers_option</t>
+  </si>
+  <si>
+    <t>groups_option</t>
+  </si>
+  <si>
+    <t>priced_by_stage</t>
+  </si>
+  <si>
+    <t>documented_by_photo</t>
+  </si>
+  <si>
+    <t>illustrated_by_photo</t>
+  </si>
+  <si>
+    <t>contains_room</t>
+  </si>
+  <si>
+    <t>defines_room_layout</t>
+  </si>
+  <si>
+    <t>processes_sale</t>
+  </si>
+  <si>
+    <t>makes_sale</t>
+  </si>
+  <si>
+    <t>manages_sale</t>
+  </si>
+  <si>
+    <t>handles_sale</t>
+  </si>
+  <si>
+    <t>sold_through_sale</t>
+  </si>
+  <si>
+    <t>served_by_school</t>
+  </si>
+  <si>
+    <t>tracked_by_progress</t>
+  </si>
+  <si>
+    <t>defines_construction_stage</t>
+  </si>
+  <si>
+    <t>defines_decorator_stage</t>
+  </si>
+  <si>
+    <t>defines_task_stage</t>
+  </si>
+  <si>
+    <t>defines_option_stage</t>
   </si>
 </sst>
 </file>
@@ -1200,18 +1217,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1232,7 +1243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1582,15 +1593,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E19FAD-5E49-4E9E-AC35-9839EEEE69E6}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1612,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1620,10 +1631,10 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1634,314 +1645,314 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>342</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>343</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>344</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>346</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>349</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>352</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>354</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>355</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
@@ -1949,186 +1960,186 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>361</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>362</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>363</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2141,8 +2152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECC36E-2C03-4816-98E9-9167C1BB3074}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2154,7 +2165,8 @@
     <col min="5" max="5" width="17.265625" customWidth="1"/>
     <col min="6" max="6" width="3.265625" customWidth="1"/>
     <col min="7" max="7" width="9.06640625" customWidth="1"/>
-    <col min="8" max="9" width="4.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" customWidth="1"/>
     <col min="10" max="10" width="4.3984375" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2199,34 +2211,34 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2234,34 +2246,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2269,34 +2281,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2304,34 +2316,34 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -2339,34 +2351,34 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -2374,34 +2386,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -2409,34 +2421,34 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2444,34 +2456,34 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K9" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -2479,34 +2491,34 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -2514,34 +2526,34 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E11" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2549,4864 +2561,4864 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>86</v>
       </c>
-      <c r="C14" t="s">
-        <v>107</v>
-      </c>
       <c r="D14" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
       <c r="D18" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K19" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K20" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B21" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K22" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D23" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F25" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D26" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K26" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C28" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K28" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K29" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D30" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E30" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K31" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K32" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K33" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D35" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="E35" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F35" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K35" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C36" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K36" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="D37" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F37" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K37" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="D38" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E38" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G38" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K38" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="C39" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D39" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E39" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G39" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I39" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K39" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G40" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K40" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C41" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E41" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K42" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C43" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H43" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J43" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K43" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E44" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K44" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E45" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="F45" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G45" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I45" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J45" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K45" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G46" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H46" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I46" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="D47" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F47" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E48" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K48" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E49" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H49" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I49" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K49" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G50" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I50" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K50" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E51" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G51" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J51" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D52" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E52" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K52" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G53" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H53" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J53" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K53" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="D54" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K54" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="D55" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E55" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K55" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G56" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K56" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G57" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J57" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K57" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="B58" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G58" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I58" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J58" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K58" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H59" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I59" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K59" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E60" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K60" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="D61" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K61" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F62" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K62" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K63" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G64" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I64" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J64" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K64" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="D65" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E65" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G65" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H65" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J65" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K65" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H66" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I66" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J66" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K66" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E67" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H67" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I67" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J67" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K67" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G68" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H68" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I68" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J68" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K68" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C69" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E69" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H69" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I69" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J69" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K69" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I70" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J70" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K70" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E71" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H71" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I71" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J71" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K71" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E72" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H72" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I72" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J72" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K72" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J73" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K73" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K74" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K75" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I76" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J76" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K76" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E77" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G77" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H77" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I77" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J77" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K77" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D78" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E78" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H78" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K78" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="C79" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D79" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E79" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K79" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C80" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K80" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C81" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E81" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I81" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J81" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K81" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C82" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D82" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E82" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H82" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I82" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J82" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K82" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F83" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G83" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H83" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I83" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J83" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K83" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D84" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E84" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F84" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G84" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H84" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I84" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J84" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K84" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E85" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G85" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I85" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J85" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K85" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C86" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E86" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K86" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C87" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F87" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K87" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C88" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G88" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H88" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I88" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J88" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K88" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E89" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K89" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E90" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H90" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I90" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J90" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K90" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C91" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="D91" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E91" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F91" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G91" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H91" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I91" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J91" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K91" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="C92" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D92" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E92" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G92" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H92" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I92" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J92" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K92" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E93" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F93" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K93" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E94" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F94" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G94" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H94" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I94" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J94" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K94" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="C95" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E95" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F95" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G95" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I95" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J95" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K95" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D96" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F96" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G96" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H96" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I96" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J96" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K96" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D97" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E97" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F97" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G97" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H97" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I97" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J97" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K97" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="D98" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F98" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G98" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H98" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I98" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J98" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K98" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="D99" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F99" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K99" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="C100" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K100" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="C101" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D101" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E101" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F101" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G101" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H101" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I101" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J101" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K101" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="D102" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E102" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F102" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G102" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H102" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I102" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J102" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K102" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E103" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F103" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G103" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H103" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I103" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J103" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K103" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E104" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F104" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G104" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H104" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I104" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J104" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K104" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C105" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="D105" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F105" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H105" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I105" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J105" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K105" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E106" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F106" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K106" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B107" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="D107" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E107" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F107" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G107" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H107" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I107" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J107" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K107" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="C108" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D108" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F108" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G108" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H108" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I108" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J108" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K108" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C109" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E109" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F109" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G109" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H109" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I109" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J109" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K109" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C110" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="D110" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E110" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G110" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H110" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I110" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J110" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K110" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C111" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E111" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F111" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H111" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I111" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J111" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K111" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C112" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="E112" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G112" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H112" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I112" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J112" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K112" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E113" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G113" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H113" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I113" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J113" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K113" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C114" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E114" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F114" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G114" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H114" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I114" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J114" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K114" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E115" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H115" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I115" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J115" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K115" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D116" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E116" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F116" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G116" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I116" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J116" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K116" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="C117" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="D117" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E117" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F117" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G117" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I117" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J117" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K117" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D118" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E118" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F118" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G118" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H118" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I118" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J118" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K118" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F119" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G119" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H119" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I119" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J119" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K119" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="D120" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E120" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G120" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I120" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J120" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K120" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="E121" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F121" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H121" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I121" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J121" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K121" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C122" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F122" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K122" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="C123" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E123" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F123" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G123" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H123" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I123" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J123" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K123" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B124" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="D124" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E124" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F124" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G124" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H124" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I124" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J124" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K124" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C125" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D125" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F125" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G125" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H125" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I125" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J125" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K125" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C126" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="D126" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E126" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F126" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G126" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H126" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I126" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J126" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K126" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="D127" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E127" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K127" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="C128" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D128" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E128" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F128" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G128" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H128" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="I128" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J128" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K128" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C129" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="D129" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E129" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F129" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G129" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H129" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I129" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J129" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K129" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C130" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="D130" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E130" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F130" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G130" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I130" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J130" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K130" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" t="s">
+        <v>273</v>
+      </c>
+      <c r="D131" t="s">
         <v>63</v>
       </c>
-      <c r="B131" t="s">
-        <v>293</v>
-      </c>
-      <c r="C131" t="s">
-        <v>294</v>
-      </c>
-      <c r="D131" t="s">
-        <v>84</v>
-      </c>
       <c r="E131" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F131" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G131" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H131" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I131" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J131" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K131" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C132" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="D132" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E132" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G132" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H132" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I132" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J132" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K132" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="D133" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="E133" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F133" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G133" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H133" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I133" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J133" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K133" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="C134" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="D134" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E134" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F134" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G134" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H134" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I134" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J134" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K134" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>278</v>
+      </c>
+      <c r="D135" t="s">
         <v>63</v>
       </c>
-      <c r="B135" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" t="s">
-        <v>299</v>
-      </c>
-      <c r="D135" t="s">
-        <v>84</v>
-      </c>
       <c r="E135" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F135" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G135" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H135" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I135" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J135" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K135" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D136" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F136" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H136" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I136" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J136" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K136" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C137" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D137" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="E137" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K137" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C138" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="D138" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="E138" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="F138" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G138" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H138" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I138" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J138" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K138" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D139" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E139" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="F139" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G139" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H139" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I139" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J139" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K139" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C140" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D140" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="E140" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="F140" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G140" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H140" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I140" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J140" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K140" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="C141" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="D141" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E141" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F141" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G141" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="H141" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I141" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J141" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K141" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C142" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="D142" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="E142" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
       <c r="G142" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H142" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I142" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J142" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K142" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C143" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="D143" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="E143" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="F143" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K143" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C144" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="D144" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F144" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H144" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I144" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J144" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K144" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B145" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C145" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D145" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E145" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F145" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H145" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I145" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J145" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K145" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B146" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C146" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D146" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E146" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G146" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H146" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I146" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J146" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K146" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B147" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C147" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D147" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E147" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G147" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H147" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I147" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J147" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K147" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B148" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="C148" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D148" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E148" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H148" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I148" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J148" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K148" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B149" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C149" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D149" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E149" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G149" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H149" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I149" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J149" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K149" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="B150" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="C150" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D150" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E150" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F150" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="G150" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="I150" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="J150" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="K150" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data dictionary.xlsx
+++ b/data dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CMU\Adv_DB_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11467345-27FE-44DE-A520-5F620211AFE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BDD23B-08E6-465E-815A-0986F534C434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{FCC53EDD-4331-46A7-A917-0188D2B6CA69}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{FCC53EDD-4331-46A7-A917-0188D2B6CA69}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="366">
   <si>
     <t>Entity name</t>
   </si>
@@ -194,18 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assumption Required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A lot is empty before building house.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Only one employee is responsible for a HouseTask and the person in charge remains unchanged.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HouseStyle</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -914,9 +902,6 @@
     <t>Zip code where the subdivision is located</t>
   </si>
   <si>
-    <t>progress_id</t>
-  </si>
-  <si>
     <t>Uniquely identifies a task progress report</t>
   </si>
   <si>
@@ -1194,6 +1179,10 @@
   </si>
   <si>
     <t>defines_option_stage</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1591,29 +1580,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E19FAD-5E49-4E9E-AC35-9839EEEE69E6}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
@@ -1622,19 +1611,16 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>339</v>
+      <c r="C2" t="s">
+        <v>335</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -1643,15 +1629,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>340</v>
+      <c r="C3" t="s">
+        <v>336</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1660,15 +1646,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>341</v>
+      <c r="C4" t="s">
+        <v>337</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1677,15 +1663,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>342</v>
+      <c r="C5" t="s">
+        <v>338</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1694,15 +1680,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>343</v>
+      <c r="C6" t="s">
+        <v>339</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1711,15 +1697,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>344</v>
+      <c r="C7" t="s">
+        <v>340</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1728,15 +1714,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>345</v>
+      <c r="C8" t="s">
+        <v>341</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1745,15 +1731,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>346</v>
+      <c r="C9" t="s">
+        <v>342</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
@@ -1762,15 +1748,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>347</v>
+      <c r="C10" t="s">
+        <v>343</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1778,19 +1764,16 @@
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>348</v>
+      <c r="C11" t="s">
+        <v>344</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -1798,19 +1781,16 @@
       <c r="E11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>349</v>
+      <c r="C12" t="s">
+        <v>345</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -1819,15 +1799,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>350</v>
+      <c r="C13" t="s">
+        <v>346</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1836,15 +1816,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>351</v>
+      <c r="C14" t="s">
+        <v>347</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1853,15 +1833,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>352</v>
+      <c r="C15" t="s">
+        <v>348</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1870,15 +1850,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>353</v>
+      <c r="C16" t="s">
+        <v>349</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1894,8 +1874,8 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>354</v>
+      <c r="C17" t="s">
+        <v>350</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1911,8 +1891,8 @@
       <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>355</v>
+      <c r="C18" t="s">
+        <v>351</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1928,8 +1908,8 @@
       <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>356</v>
+      <c r="C19" t="s">
+        <v>352</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1940,13 +1920,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>357</v>
+      <c r="C20" t="s">
+        <v>353</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1962,8 +1942,8 @@
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>358</v>
+      <c r="C21" t="s">
+        <v>354</v>
       </c>
       <c r="D21" t="s">
         <v>19</v>
@@ -1974,13 +1954,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>359</v>
+      <c r="C22" t="s">
+        <v>355</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1991,13 +1971,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>360</v>
+      <c r="C23" t="s">
+        <v>356</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -2013,8 +1993,8 @@
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>361</v>
+      <c r="C24" t="s">
+        <v>357</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -2030,8 +2010,8 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>362</v>
+      <c r="C25" t="s">
+        <v>358</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
@@ -2047,8 +2027,8 @@
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>363</v>
+      <c r="C26" t="s">
+        <v>359</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -2064,8 +2044,8 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>364</v>
+      <c r="C27" t="s">
+        <v>360</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -2076,13 +2056,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>365</v>
+      <c r="C28" t="s">
+        <v>361</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -2093,13 +2073,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B29" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>366</v>
+      <c r="C29" t="s">
+        <v>362</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -2110,13 +2090,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>367</v>
+      <c r="C30" t="s">
+        <v>363</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -2127,13 +2107,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>368</v>
+      <c r="C31" t="s">
+        <v>364</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
@@ -2152,8 +2132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78ECC36E-2C03-4816-98E9-9167C1BB3074}">
   <dimension ref="A1:K150"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2164,11 +2144,11 @@
     <col min="4" max="4" width="31.265625" customWidth="1"/>
     <col min="5" max="5" width="17.265625" customWidth="1"/>
     <col min="6" max="6" width="3.265625" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" customWidth="1"/>
-    <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="13.19921875" customWidth="1"/>
-    <col min="10" max="10" width="4.3984375" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
@@ -2190,19 +2170,19 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2211,34 +2191,34 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
@@ -2246,34 +2226,34 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -2281,34 +2261,34 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -2316,34 +2296,34 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -2351,34 +2331,34 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -2386,34 +2366,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -2421,34 +2401,34 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
@@ -2456,34 +2436,34 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
@@ -2491,34 +2471,34 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
@@ -2526,34 +2506,34 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K11" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
@@ -2561,34 +2541,34 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
@@ -2596,34 +2576,34 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>60</v>
-      </c>
-      <c r="I13" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -2631,34 +2611,34 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I14" t="s">
-        <v>60</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="K14" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -2666,34 +2646,34 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -2701,34 +2681,34 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" t="s">
-        <v>60</v>
-      </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -2736,34 +2716,34 @@
         <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
@@ -2771,34 +2751,34 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
@@ -2806,34 +2786,34 @@
         <v>41</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.4">
@@ -2841,69 +2821,69 @@
         <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
-      </c>
-      <c r="H20" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
-      <c r="I21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -2911,34 +2891,34 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.4">
@@ -2946,34 +2926,34 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D23" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
-      </c>
-      <c r="G23" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" t="s">
-        <v>60</v>
-      </c>
-      <c r="J23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
@@ -2981,34 +2961,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" t="s">
-        <v>60</v>
-      </c>
-      <c r="H24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" t="s">
-        <v>60</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24" t="s">
-        <v>60</v>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -3016,34 +2996,34 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>60</v>
-      </c>
-      <c r="K25" t="s">
-        <v>60</v>
+        <v>303</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
@@ -3051,34 +3031,34 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.4">
@@ -3086,34 +3066,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" t="s">
-        <v>60</v>
-      </c>
-      <c r="K27" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -3121,34 +3101,34 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" t="s">
-        <v>60</v>
-      </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" t="s">
-        <v>60</v>
-      </c>
-      <c r="K28" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.4">
@@ -3156,34 +3136,34 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" t="s">
-        <v>60</v>
-      </c>
-      <c r="I29" t="s">
-        <v>60</v>
-      </c>
-      <c r="J29" t="s">
-        <v>60</v>
-      </c>
-      <c r="K29" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -3191,34 +3171,34 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D30" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.4">
@@ -3226,34 +3206,34 @@
         <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-      <c r="G31" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -3261,34 +3241,34 @@
         <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
-      </c>
-      <c r="G32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" t="s">
-        <v>60</v>
-      </c>
-      <c r="I32" t="s">
-        <v>60</v>
-      </c>
-      <c r="J32" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -3296,34 +3276,34 @@
         <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" t="s">
-        <v>60</v>
-      </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
-      <c r="K33" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -3331,34 +3311,34 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" t="s">
-        <v>60</v>
-      </c>
-      <c r="I34" t="s">
-        <v>60</v>
-      </c>
-      <c r="J34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
@@ -3366,34 +3346,34 @@
         <v>23</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
-      </c>
-      <c r="G35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H35" t="s">
-        <v>60</v>
-      </c>
-      <c r="I35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
@@ -3401,34 +3381,34 @@
         <v>23</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" t="s">
-        <v>60</v>
-      </c>
-      <c r="H36" t="s">
-        <v>60</v>
-      </c>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K36" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
@@ -3436,34 +3416,34 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
-      </c>
-      <c r="G37" t="s">
-        <v>60</v>
-      </c>
-      <c r="H37" t="s">
-        <v>60</v>
-      </c>
-      <c r="I37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J37" t="s">
-        <v>60</v>
-      </c>
-      <c r="K37" t="s">
-        <v>60</v>
+        <v>303</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
@@ -3471,34 +3451,34 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-      <c r="J38" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -3506,34 +3486,34 @@
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C39" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D39" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" t="s">
-        <v>60</v>
-      </c>
-      <c r="J39" t="s">
-        <v>60</v>
-      </c>
-      <c r="K39" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
@@ -3541,34 +3521,34 @@
         <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
-        <v>61</v>
-      </c>
-      <c r="G40" t="s">
-        <v>60</v>
-      </c>
-      <c r="H40" t="s">
-        <v>60</v>
-      </c>
-      <c r="I40" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
@@ -3576,34 +3556,34 @@
         <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" t="s">
-        <v>60</v>
-      </c>
-      <c r="I41" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
@@ -3611,34 +3591,34 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G42" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" t="s">
-        <v>60</v>
-      </c>
-      <c r="I42" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -3646,34 +3626,34 @@
         <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
-      </c>
-      <c r="G43" t="s">
-        <v>58</v>
-      </c>
-      <c r="H43" t="s">
-        <v>60</v>
-      </c>
-      <c r="I43" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" t="s">
-        <v>60</v>
-      </c>
-      <c r="K43" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
@@ -3681,34 +3661,34 @@
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I44" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" t="s">
-        <v>60</v>
-      </c>
-      <c r="K44" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -3716,34 +3696,34 @@
         <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
-      </c>
-      <c r="G45" t="s">
-        <v>60</v>
-      </c>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" t="s">
-        <v>60</v>
-      </c>
-      <c r="J45" t="s">
-        <v>60</v>
-      </c>
-      <c r="K45" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -3751,34 +3731,34 @@
         <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F46" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-      <c r="I46" t="s">
-        <v>60</v>
-      </c>
-      <c r="J46" t="s">
-        <v>60</v>
-      </c>
-      <c r="K46" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
@@ -3786,34 +3766,34 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F47" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-      <c r="I47" t="s">
-        <v>60</v>
-      </c>
-      <c r="J47" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
@@ -3821,34 +3801,34 @@
         <v>33</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
-      </c>
-      <c r="G48" t="s">
-        <v>60</v>
-      </c>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-      <c r="I48" t="s">
-        <v>60</v>
-      </c>
-      <c r="J48" t="s">
-        <v>60</v>
-      </c>
-      <c r="K48" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
@@ -3856,34 +3836,34 @@
         <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" t="s">
-        <v>60</v>
-      </c>
-      <c r="J49" t="s">
-        <v>60</v>
-      </c>
-      <c r="K49" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -3891,34 +3871,34 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E50" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-      <c r="I50" t="s">
-        <v>60</v>
-      </c>
-      <c r="J50" t="s">
-        <v>60</v>
-      </c>
-      <c r="K50" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
@@ -3926,34 +3906,34 @@
         <v>42</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
-      </c>
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-      <c r="H51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I51" t="s">
-        <v>60</v>
-      </c>
-      <c r="J51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
@@ -3961,34 +3941,34 @@
         <v>42</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D52" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
-      </c>
-      <c r="G52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" t="s">
-        <v>60</v>
-      </c>
-      <c r="J52" t="s">
-        <v>60</v>
-      </c>
-      <c r="K52" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
@@ -3996,34 +3976,34 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" t="s">
-        <v>60</v>
-      </c>
-      <c r="I53" t="s">
-        <v>60</v>
-      </c>
-      <c r="J53" t="s">
-        <v>60</v>
-      </c>
-      <c r="K53" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
@@ -4031,34 +4011,34 @@
         <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E54" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" t="s">
-        <v>60</v>
-      </c>
-      <c r="I54" t="s">
-        <v>60</v>
-      </c>
-      <c r="J54" t="s">
-        <v>60</v>
-      </c>
-      <c r="K54" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
@@ -4066,34 +4046,34 @@
         <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D55" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" t="s">
-        <v>60</v>
-      </c>
-      <c r="I55" t="s">
-        <v>60</v>
-      </c>
-      <c r="J55" t="s">
-        <v>60</v>
-      </c>
-      <c r="K55" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
@@ -4101,34 +4081,34 @@
         <v>42</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D56" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>61</v>
-      </c>
-      <c r="H56" t="s">
-        <v>60</v>
-      </c>
-      <c r="I56" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" t="s">
-        <v>60</v>
-      </c>
-      <c r="K56" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
@@ -4136,69 +4116,69 @@
         <v>42</v>
       </c>
       <c r="B57" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D57" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
-        <v>60</v>
-      </c>
-      <c r="I57" t="s">
-        <v>60</v>
-      </c>
-      <c r="J57" t="s">
-        <v>60</v>
-      </c>
-      <c r="K57" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C58" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F58" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H58" t="s">
-        <v>60</v>
-      </c>
-      <c r="I58" t="s">
-        <v>60</v>
-      </c>
-      <c r="J58" t="s">
-        <v>60</v>
-      </c>
-      <c r="K58" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
@@ -4206,34 +4186,34 @@
         <v>30</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E59" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>60</v>
-      </c>
-      <c r="I59" t="s">
-        <v>60</v>
-      </c>
-      <c r="J59" t="s">
-        <v>60</v>
-      </c>
-      <c r="K59" t="s">
-        <v>60</v>
+      <c r="G59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
@@ -4241,34 +4221,34 @@
         <v>30</v>
       </c>
       <c r="B60" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
-      </c>
-      <c r="G60" t="s">
-        <v>60</v>
-      </c>
-      <c r="H60" t="s">
-        <v>60</v>
-      </c>
-      <c r="I60" t="s">
-        <v>60</v>
-      </c>
-      <c r="J60" t="s">
-        <v>60</v>
-      </c>
-      <c r="K60" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
@@ -4276,34 +4256,34 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61" t="s">
-        <v>60</v>
-      </c>
-      <c r="I61" t="s">
-        <v>60</v>
-      </c>
-      <c r="J61" t="s">
-        <v>60</v>
-      </c>
-      <c r="K61" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
@@ -4311,34 +4291,34 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
-      </c>
-      <c r="G62" t="s">
-        <v>60</v>
-      </c>
-      <c r="H62" t="s">
-        <v>60</v>
-      </c>
-      <c r="I62" t="s">
-        <v>60</v>
-      </c>
-      <c r="J62" t="s">
-        <v>60</v>
-      </c>
-      <c r="K62" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
@@ -4346,34 +4326,34 @@
         <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D63" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
-      </c>
-      <c r="G63" t="s">
-        <v>60</v>
-      </c>
-      <c r="H63" t="s">
-        <v>60</v>
-      </c>
-      <c r="I63" t="s">
-        <v>60</v>
-      </c>
-      <c r="J63" t="s">
-        <v>60</v>
-      </c>
-      <c r="K63" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
@@ -4381,34 +4361,34 @@
         <v>28</v>
       </c>
       <c r="B64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C64" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" t="s">
-        <v>58</v>
-      </c>
-      <c r="H64" t="s">
-        <v>60</v>
-      </c>
-      <c r="I64" t="s">
-        <v>60</v>
-      </c>
-      <c r="J64" t="s">
-        <v>60</v>
-      </c>
-      <c r="K64" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
@@ -4416,34 +4396,34 @@
         <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" t="s">
-        <v>60</v>
-      </c>
-      <c r="H65" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" t="s">
-        <v>60</v>
-      </c>
-      <c r="J65" t="s">
-        <v>60</v>
-      </c>
-      <c r="K65" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -4451,34 +4431,34 @@
         <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-      <c r="G66" t="s">
-        <v>60</v>
-      </c>
-      <c r="H66" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" t="s">
-        <v>60</v>
-      </c>
-      <c r="J66" t="s">
-        <v>60</v>
-      </c>
-      <c r="K66" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
@@ -4486,34 +4466,34 @@
         <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-      <c r="G67" t="s">
-        <v>60</v>
-      </c>
-      <c r="H67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I67" t="s">
-        <v>60</v>
-      </c>
-      <c r="J67" t="s">
-        <v>60</v>
-      </c>
-      <c r="K67" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
@@ -4521,34 +4501,34 @@
         <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-      <c r="G68" t="s">
-        <v>60</v>
-      </c>
-      <c r="H68" t="s">
-        <v>60</v>
-      </c>
-      <c r="I68" t="s">
-        <v>60</v>
-      </c>
-      <c r="J68" t="s">
-        <v>60</v>
-      </c>
-      <c r="K68" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
@@ -4556,34 +4536,34 @@
         <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E69" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" t="s">
-        <v>60</v>
-      </c>
-      <c r="I69" t="s">
-        <v>60</v>
-      </c>
-      <c r="J69" t="s">
-        <v>60</v>
-      </c>
-      <c r="K69" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
@@ -4591,34 +4571,34 @@
         <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" t="s">
-        <v>60</v>
-      </c>
-      <c r="H70" t="s">
-        <v>60</v>
-      </c>
-      <c r="I70" t="s">
-        <v>60</v>
-      </c>
-      <c r="J70" t="s">
-        <v>60</v>
-      </c>
-      <c r="K70" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
@@ -4626,34 +4606,34 @@
         <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E71" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F71" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" t="s">
-        <v>60</v>
-      </c>
-      <c r="H71" t="s">
-        <v>60</v>
-      </c>
-      <c r="I71" t="s">
-        <v>60</v>
-      </c>
-      <c r="J71" t="s">
-        <v>60</v>
-      </c>
-      <c r="K71" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
@@ -4661,34 +4641,34 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D72" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F72" t="s">
-        <v>61</v>
-      </c>
-      <c r="G72" t="s">
-        <v>58</v>
-      </c>
-      <c r="H72" t="s">
-        <v>60</v>
-      </c>
-      <c r="I72" t="s">
-        <v>60</v>
-      </c>
-      <c r="J72" t="s">
-        <v>60</v>
-      </c>
-      <c r="K72" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
@@ -4696,34 +4676,34 @@
         <v>27</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
-      </c>
-      <c r="G73" t="s">
-        <v>60</v>
-      </c>
-      <c r="H73" t="s">
-        <v>59</v>
-      </c>
-      <c r="I73" t="s">
-        <v>60</v>
-      </c>
-      <c r="J73" t="s">
-        <v>60</v>
-      </c>
-      <c r="K73" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
@@ -4731,34 +4711,34 @@
         <v>27</v>
       </c>
       <c r="B74" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F74" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" t="s">
-        <v>60</v>
-      </c>
-      <c r="H74" t="s">
-        <v>60</v>
-      </c>
-      <c r="I74" t="s">
-        <v>60</v>
-      </c>
-      <c r="J74" t="s">
-        <v>60</v>
-      </c>
-      <c r="K74" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
@@ -4766,34 +4746,34 @@
         <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
-      </c>
-      <c r="G75" t="s">
-        <v>60</v>
-      </c>
-      <c r="H75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I75" t="s">
-        <v>60</v>
-      </c>
-      <c r="J75" t="s">
-        <v>60</v>
-      </c>
-      <c r="K75" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
@@ -4801,34 +4781,34 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
-      </c>
-      <c r="G76" t="s">
-        <v>60</v>
-      </c>
-      <c r="H76" t="s">
-        <v>60</v>
-      </c>
-      <c r="I76" t="s">
-        <v>60</v>
-      </c>
-      <c r="J76" t="s">
-        <v>60</v>
-      </c>
-      <c r="K76" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
@@ -4836,34 +4816,34 @@
         <v>27</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E77" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F77" t="s">
-        <v>61</v>
-      </c>
-      <c r="G77" t="s">
-        <v>60</v>
-      </c>
-      <c r="H77" t="s">
-        <v>60</v>
-      </c>
-      <c r="I77" t="s">
-        <v>60</v>
-      </c>
-      <c r="J77" t="s">
-        <v>60</v>
-      </c>
-      <c r="K77" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
@@ -4871,34 +4851,34 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C78" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D78" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E78" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G78" t="s">
-        <v>60</v>
-      </c>
-      <c r="H78" t="s">
-        <v>59</v>
-      </c>
-      <c r="I78" t="s">
-        <v>60</v>
-      </c>
-      <c r="J78" t="s">
-        <v>60</v>
-      </c>
-      <c r="K78" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
@@ -4906,34 +4886,34 @@
         <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C79" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D79" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F79" t="s">
-        <v>61</v>
-      </c>
-      <c r="G79" t="s">
-        <v>60</v>
-      </c>
-      <c r="H79" t="s">
-        <v>60</v>
-      </c>
-      <c r="I79" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" t="s">
-        <v>60</v>
-      </c>
-      <c r="K79" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
@@ -4941,34 +4921,34 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D80" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
-      <c r="G80" t="s">
-        <v>60</v>
-      </c>
-      <c r="H80" t="s">
-        <v>60</v>
-      </c>
-      <c r="I80" t="s">
-        <v>60</v>
-      </c>
-      <c r="J80" t="s">
-        <v>60</v>
-      </c>
-      <c r="K80" t="s">
-        <v>60</v>
+      <c r="G80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
@@ -4976,34 +4956,34 @@
         <v>27</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C81" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
-      <c r="G81" t="s">
-        <v>60</v>
-      </c>
-      <c r="H81" t="s">
-        <v>60</v>
-      </c>
-      <c r="I81" t="s">
-        <v>60</v>
-      </c>
-      <c r="J81" t="s">
-        <v>60</v>
-      </c>
-      <c r="K81" t="s">
-        <v>60</v>
+      <c r="G81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.4">
@@ -5011,34 +4991,34 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C82" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D82" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F82">
         <v>0</v>
       </c>
-      <c r="G82" t="s">
-        <v>60</v>
-      </c>
-      <c r="H82" t="s">
-        <v>60</v>
-      </c>
-      <c r="I82" t="s">
-        <v>60</v>
-      </c>
-      <c r="J82" t="s">
-        <v>60</v>
-      </c>
-      <c r="K82" t="s">
-        <v>60</v>
+      <c r="G82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
@@ -5046,34 +5026,34 @@
         <v>31</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E83" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F83" t="s">
-        <v>61</v>
-      </c>
-      <c r="G83" t="s">
-        <v>58</v>
-      </c>
-      <c r="H83" t="s">
-        <v>60</v>
-      </c>
-      <c r="I83" t="s">
-        <v>60</v>
-      </c>
-      <c r="J83" t="s">
-        <v>60</v>
-      </c>
-      <c r="K83" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
@@ -5081,34 +5061,34 @@
         <v>31</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D84" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F84" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" t="s">
-        <v>60</v>
-      </c>
-      <c r="I84" t="s">
-        <v>60</v>
-      </c>
-      <c r="J84" t="s">
-        <v>60</v>
-      </c>
-      <c r="K84" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
@@ -5116,34 +5096,34 @@
         <v>31</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D85" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E85" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" t="s">
-        <v>60</v>
-      </c>
-      <c r="H85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I85" t="s">
-        <v>60</v>
-      </c>
-      <c r="J85" t="s">
-        <v>60</v>
-      </c>
-      <c r="K85" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
@@ -5151,34 +5131,34 @@
         <v>31</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F86" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" t="s">
-        <v>60</v>
-      </c>
-      <c r="H86" t="s">
-        <v>60</v>
-      </c>
-      <c r="I86" t="s">
-        <v>60</v>
-      </c>
-      <c r="J86" t="s">
-        <v>60</v>
-      </c>
-      <c r="K86" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
@@ -5186,34 +5166,34 @@
         <v>31</v>
       </c>
       <c r="B87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E87" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F87" t="s">
-        <v>61</v>
-      </c>
-      <c r="G87" t="s">
-        <v>60</v>
-      </c>
-      <c r="H87" t="s">
-        <v>60</v>
-      </c>
-      <c r="I87" t="s">
-        <v>60</v>
-      </c>
-      <c r="J87" t="s">
-        <v>60</v>
-      </c>
-      <c r="K87" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
@@ -5221,34 +5201,34 @@
         <v>31</v>
       </c>
       <c r="B88" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C88" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E88" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" t="s">
-        <v>60</v>
-      </c>
-      <c r="H88" t="s">
-        <v>60</v>
-      </c>
-      <c r="I88" t="s">
-        <v>60</v>
-      </c>
-      <c r="J88" t="s">
-        <v>60</v>
-      </c>
-      <c r="K88" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
@@ -5256,34 +5236,34 @@
         <v>31</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E89" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" t="s">
-        <v>60</v>
-      </c>
-      <c r="H89" t="s">
-        <v>60</v>
-      </c>
-      <c r="I89" t="s">
-        <v>60</v>
-      </c>
-      <c r="J89" t="s">
-        <v>60</v>
-      </c>
-      <c r="K89" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
@@ -5291,34 +5271,34 @@
         <v>31</v>
       </c>
       <c r="B90" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E90" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
-      <c r="G90" t="s">
-        <v>60</v>
-      </c>
-      <c r="H90" t="s">
-        <v>60</v>
-      </c>
-      <c r="I90" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" t="s">
-        <v>60</v>
-      </c>
-      <c r="K90" t="s">
-        <v>60</v>
+      <c r="G90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
@@ -5326,34 +5306,34 @@
         <v>31</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D91" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F91" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91" t="s">
-        <v>60</v>
-      </c>
-      <c r="H91" t="s">
-        <v>60</v>
-      </c>
-      <c r="I91" t="s">
-        <v>60</v>
-      </c>
-      <c r="J91" t="s">
-        <v>60</v>
-      </c>
-      <c r="K91" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
@@ -5361,34 +5341,34 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C92" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" t="s">
-        <v>58</v>
-      </c>
-      <c r="H92" t="s">
-        <v>60</v>
-      </c>
-      <c r="I92" t="s">
-        <v>60</v>
-      </c>
-      <c r="J92" t="s">
-        <v>60</v>
-      </c>
-      <c r="K92" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
@@ -5396,34 +5376,34 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F93" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" t="s">
-        <v>60</v>
-      </c>
-      <c r="H93" t="s">
-        <v>60</v>
-      </c>
-      <c r="I93" t="s">
-        <v>60</v>
-      </c>
-      <c r="J93" t="s">
-        <v>60</v>
-      </c>
-      <c r="K93" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
@@ -5431,34 +5411,34 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F94" t="s">
-        <v>61</v>
-      </c>
-      <c r="G94" t="s">
-        <v>60</v>
-      </c>
-      <c r="H94" t="s">
-        <v>60</v>
-      </c>
-      <c r="I94" t="s">
-        <v>60</v>
-      </c>
-      <c r="J94" t="s">
-        <v>60</v>
-      </c>
-      <c r="K94" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
@@ -5466,34 +5446,34 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C95" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D95" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F95" t="s">
-        <v>61</v>
-      </c>
-      <c r="G95" t="s">
-        <v>60</v>
-      </c>
-      <c r="H95" t="s">
-        <v>60</v>
-      </c>
-      <c r="I95" t="s">
-        <v>60</v>
-      </c>
-      <c r="J95" t="s">
-        <v>60</v>
-      </c>
-      <c r="K95" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
@@ -5501,34 +5481,34 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C96" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D96" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F96" t="s">
-        <v>61</v>
-      </c>
-      <c r="G96" t="s">
-        <v>60</v>
-      </c>
-      <c r="H96" t="s">
-        <v>60</v>
-      </c>
-      <c r="I96" t="s">
-        <v>60</v>
-      </c>
-      <c r="J96" t="s">
-        <v>60</v>
-      </c>
-      <c r="K96" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.4">
@@ -5536,34 +5516,34 @@
         <v>36</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D97" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E97" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F97" t="s">
-        <v>61</v>
-      </c>
-      <c r="G97" t="s">
-        <v>58</v>
-      </c>
-      <c r="H97" t="s">
-        <v>60</v>
-      </c>
-      <c r="I97" t="s">
-        <v>60</v>
-      </c>
-      <c r="J97" t="s">
-        <v>60</v>
-      </c>
-      <c r="K97" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.4">
@@ -5571,34 +5551,34 @@
         <v>36</v>
       </c>
       <c r="B98" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F98" t="s">
-        <v>61</v>
-      </c>
-      <c r="G98" t="s">
-        <v>60</v>
-      </c>
-      <c r="H98" t="s">
-        <v>60</v>
-      </c>
-      <c r="I98" t="s">
-        <v>60</v>
-      </c>
-      <c r="J98" t="s">
-        <v>60</v>
-      </c>
-      <c r="K98" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.4">
@@ -5606,34 +5586,34 @@
         <v>36</v>
       </c>
       <c r="B99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F99" t="s">
-        <v>61</v>
-      </c>
-      <c r="G99" t="s">
-        <v>60</v>
-      </c>
-      <c r="H99" t="s">
-        <v>60</v>
-      </c>
-      <c r="I99" t="s">
-        <v>60</v>
-      </c>
-      <c r="J99" t="s">
-        <v>60</v>
-      </c>
-      <c r="K99" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.4">
@@ -5641,34 +5621,34 @@
         <v>36</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E100" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F100" t="s">
-        <v>61</v>
-      </c>
-      <c r="G100" t="s">
-        <v>60</v>
-      </c>
-      <c r="H100" t="s">
-        <v>60</v>
-      </c>
-      <c r="I100" t="s">
-        <v>60</v>
-      </c>
-      <c r="J100" t="s">
-        <v>60</v>
-      </c>
-      <c r="K100" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.4">
@@ -5676,34 +5656,34 @@
         <v>36</v>
       </c>
       <c r="B101" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E101" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F101" t="s">
-        <v>61</v>
-      </c>
-      <c r="G101" t="s">
-        <v>60</v>
-      </c>
-      <c r="H101" t="s">
-        <v>60</v>
-      </c>
-      <c r="I101" t="s">
-        <v>60</v>
-      </c>
-      <c r="J101" t="s">
-        <v>60</v>
-      </c>
-      <c r="K101" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.4">
@@ -5711,34 +5691,34 @@
         <v>35</v>
       </c>
       <c r="B102" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E102" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F102" t="s">
-        <v>61</v>
-      </c>
-      <c r="G102" t="s">
-        <v>58</v>
-      </c>
-      <c r="H102" t="s">
-        <v>60</v>
-      </c>
-      <c r="I102" t="s">
-        <v>60</v>
-      </c>
-      <c r="J102" t="s">
-        <v>60</v>
-      </c>
-      <c r="K102" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.4">
@@ -5746,34 +5726,34 @@
         <v>35</v>
       </c>
       <c r="B103" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C103" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F103" t="s">
-        <v>61</v>
-      </c>
-      <c r="G103" t="s">
-        <v>60</v>
-      </c>
-      <c r="H103" t="s">
-        <v>60</v>
-      </c>
-      <c r="I103" t="s">
-        <v>60</v>
-      </c>
-      <c r="J103" t="s">
-        <v>60</v>
-      </c>
-      <c r="K103" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.4">
@@ -5781,34 +5761,34 @@
         <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F104" t="s">
-        <v>61</v>
-      </c>
-      <c r="G104" t="s">
-        <v>58</v>
-      </c>
-      <c r="H104" t="s">
-        <v>60</v>
-      </c>
-      <c r="I104" t="s">
-        <v>60</v>
-      </c>
-      <c r="J104" t="s">
-        <v>60</v>
-      </c>
-      <c r="K104" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.4">
@@ -5816,34 +5796,34 @@
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C105" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
-      </c>
-      <c r="G105" t="s">
-        <v>60</v>
-      </c>
-      <c r="H105" t="s">
-        <v>60</v>
-      </c>
-      <c r="I105" t="s">
-        <v>60</v>
-      </c>
-      <c r="J105" t="s">
-        <v>60</v>
-      </c>
-      <c r="K105" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.4">
@@ -5851,69 +5831,69 @@
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E106" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
-      </c>
-      <c r="G106" t="s">
-        <v>60</v>
-      </c>
-      <c r="H106" t="s">
-        <v>60</v>
-      </c>
-      <c r="I106" t="s">
-        <v>60</v>
-      </c>
-      <c r="J106" t="s">
-        <v>60</v>
-      </c>
-      <c r="K106" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F107" t="s">
-        <v>61</v>
-      </c>
-      <c r="G107" t="s">
-        <v>60</v>
-      </c>
-      <c r="H107" t="s">
-        <v>60</v>
-      </c>
-      <c r="I107" t="s">
-        <v>60</v>
-      </c>
-      <c r="J107" t="s">
-        <v>60</v>
-      </c>
-      <c r="K107" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.4">
@@ -5921,34 +5901,34 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F108" t="s">
-        <v>61</v>
-      </c>
-      <c r="G108" t="s">
-        <v>60</v>
-      </c>
-      <c r="H108" t="s">
-        <v>60</v>
-      </c>
-      <c r="I108" t="s">
-        <v>60</v>
-      </c>
-      <c r="J108" t="s">
-        <v>60</v>
-      </c>
-      <c r="K108" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.4">
@@ -5956,34 +5936,34 @@
         <v>39</v>
       </c>
       <c r="B109" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C109" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D109" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F109" t="s">
-        <v>61</v>
-      </c>
-      <c r="G109" t="s">
-        <v>58</v>
-      </c>
-      <c r="H109" t="s">
-        <v>60</v>
-      </c>
-      <c r="I109" t="s">
-        <v>60</v>
-      </c>
-      <c r="J109" t="s">
-        <v>60</v>
-      </c>
-      <c r="K109" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.4">
@@ -5991,34 +5971,34 @@
         <v>39</v>
       </c>
       <c r="B110" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C110" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E110" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F110" t="s">
-        <v>61</v>
-      </c>
-      <c r="G110" t="s">
-        <v>60</v>
-      </c>
-      <c r="H110" t="s">
-        <v>60</v>
-      </c>
-      <c r="I110" t="s">
-        <v>60</v>
-      </c>
-      <c r="J110" t="s">
-        <v>60</v>
-      </c>
-      <c r="K110" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.4">
@@ -6026,34 +6006,34 @@
         <v>39</v>
       </c>
       <c r="B111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C111" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E111" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F111" t="s">
-        <v>61</v>
-      </c>
-      <c r="G111" t="s">
-        <v>60</v>
-      </c>
-      <c r="H111" t="s">
-        <v>60</v>
-      </c>
-      <c r="I111" t="s">
-        <v>60</v>
-      </c>
-      <c r="J111" t="s">
-        <v>60</v>
-      </c>
-      <c r="K111" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.4">
@@ -6061,34 +6041,34 @@
         <v>39</v>
       </c>
       <c r="B112" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D112" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E112" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F112" t="s">
-        <v>61</v>
-      </c>
-      <c r="G112" t="s">
-        <v>60</v>
-      </c>
-      <c r="H112" t="s">
-        <v>60</v>
-      </c>
-      <c r="I112" t="s">
-        <v>60</v>
-      </c>
-      <c r="J112" t="s">
-        <v>60</v>
-      </c>
-      <c r="K112" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
@@ -6096,34 +6076,34 @@
         <v>39</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C113" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E113" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F113" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" t="s">
-        <v>60</v>
-      </c>
-      <c r="H113" t="s">
-        <v>60</v>
-      </c>
-      <c r="I113" t="s">
-        <v>60</v>
-      </c>
-      <c r="J113" t="s">
-        <v>60</v>
-      </c>
-      <c r="K113" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.4">
@@ -6131,34 +6111,34 @@
         <v>39</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D114" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E114" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F114" t="s">
-        <v>61</v>
-      </c>
-      <c r="G114" t="s">
-        <v>60</v>
-      </c>
-      <c r="H114" t="s">
-        <v>60</v>
-      </c>
-      <c r="I114" t="s">
-        <v>60</v>
-      </c>
-      <c r="J114" t="s">
-        <v>60</v>
-      </c>
-      <c r="K114" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.4">
@@ -6166,34 +6146,34 @@
         <v>39</v>
       </c>
       <c r="B115" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D115" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E115" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
-      </c>
-      <c r="G115" t="s">
-        <v>60</v>
-      </c>
-      <c r="H115" t="s">
-        <v>60</v>
-      </c>
-      <c r="I115" t="s">
-        <v>60</v>
-      </c>
-      <c r="J115" t="s">
-        <v>60</v>
-      </c>
-      <c r="K115" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.4">
@@ -6201,34 +6181,34 @@
         <v>39</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C116" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E116" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F116" t="s">
-        <v>61</v>
-      </c>
-      <c r="G116" t="s">
-        <v>60</v>
-      </c>
-      <c r="H116" t="s">
-        <v>60</v>
-      </c>
-      <c r="I116" t="s">
-        <v>60</v>
-      </c>
-      <c r="J116" t="s">
-        <v>60</v>
-      </c>
-      <c r="K116" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.4">
@@ -6236,34 +6216,34 @@
         <v>39</v>
       </c>
       <c r="B117" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D117" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E117" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F117" t="s">
-        <v>61</v>
-      </c>
-      <c r="G117" t="s">
-        <v>60</v>
-      </c>
-      <c r="H117" t="s">
-        <v>60</v>
-      </c>
-      <c r="I117" t="s">
-        <v>60</v>
-      </c>
-      <c r="J117" t="s">
-        <v>60</v>
-      </c>
-      <c r="K117" t="s">
-        <v>58</v>
+        <v>58</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.4">
@@ -6271,34 +6251,34 @@
         <v>40</v>
       </c>
       <c r="B118" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D118" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F118" t="s">
-        <v>61</v>
-      </c>
-      <c r="G118" t="s">
-        <v>58</v>
-      </c>
-      <c r="H118" t="s">
-        <v>60</v>
-      </c>
-      <c r="I118" t="s">
-        <v>60</v>
-      </c>
-      <c r="J118" t="s">
-        <v>60</v>
-      </c>
-      <c r="K118" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.4">
@@ -6306,34 +6286,34 @@
         <v>40</v>
       </c>
       <c r="B119" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C119" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F119" t="s">
-        <v>61</v>
-      </c>
-      <c r="G119" t="s">
-        <v>60</v>
-      </c>
-      <c r="H119" t="s">
-        <v>59</v>
-      </c>
-      <c r="I119" t="s">
-        <v>60</v>
-      </c>
-      <c r="J119" t="s">
-        <v>60</v>
-      </c>
-      <c r="K119" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.4">
@@ -6341,34 +6321,34 @@
         <v>40</v>
       </c>
       <c r="B120" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E120" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F120" t="s">
-        <v>61</v>
-      </c>
-      <c r="G120" t="s">
-        <v>60</v>
-      </c>
-      <c r="H120" t="s">
-        <v>60</v>
-      </c>
-      <c r="I120" t="s">
-        <v>60</v>
-      </c>
-      <c r="J120" t="s">
-        <v>60</v>
-      </c>
-      <c r="K120" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.4">
@@ -6376,34 +6356,34 @@
         <v>40</v>
       </c>
       <c r="B121" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C121" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D121" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
-      </c>
-      <c r="G121" t="s">
-        <v>60</v>
-      </c>
-      <c r="H121" t="s">
-        <v>60</v>
-      </c>
-      <c r="I121" t="s">
-        <v>60</v>
-      </c>
-      <c r="J121" t="s">
-        <v>60</v>
-      </c>
-      <c r="K121" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
@@ -6411,34 +6391,34 @@
         <v>40</v>
       </c>
       <c r="B122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C122" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E122" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F122" t="s">
-        <v>61</v>
-      </c>
-      <c r="G122" t="s">
-        <v>60</v>
-      </c>
-      <c r="H122" t="s">
-        <v>60</v>
-      </c>
-      <c r="I122" t="s">
-        <v>60</v>
-      </c>
-      <c r="J122" t="s">
-        <v>60</v>
-      </c>
-      <c r="K122" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.4">
@@ -6446,34 +6426,34 @@
         <v>40</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E123" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F123" t="s">
-        <v>307</v>
-      </c>
-      <c r="G123" t="s">
-        <v>60</v>
-      </c>
-      <c r="H123" t="s">
-        <v>60</v>
-      </c>
-      <c r="I123" t="s">
-        <v>60</v>
-      </c>
-      <c r="J123" t="s">
-        <v>60</v>
-      </c>
-      <c r="K123" t="s">
-        <v>60</v>
+        <v>303</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.4">
@@ -6484,31 +6464,31 @@
         <v>40</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D124" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E124" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F124" t="s">
-        <v>307</v>
-      </c>
-      <c r="G124" t="s">
-        <v>60</v>
-      </c>
-      <c r="H124" t="s">
-        <v>60</v>
-      </c>
-      <c r="I124" t="s">
-        <v>60</v>
-      </c>
-      <c r="J124" t="s">
-        <v>60</v>
-      </c>
-      <c r="K124" t="s">
-        <v>60</v>
+        <v>303</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.4">
@@ -6516,34 +6496,34 @@
         <v>40</v>
       </c>
       <c r="B125" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F125" t="s">
-        <v>307</v>
-      </c>
-      <c r="G125" t="s">
-        <v>60</v>
-      </c>
-      <c r="H125" t="s">
-        <v>60</v>
-      </c>
-      <c r="I125" t="s">
-        <v>60</v>
-      </c>
-      <c r="J125" t="s">
-        <v>60</v>
-      </c>
-      <c r="K125" t="s">
-        <v>60</v>
+        <v>303</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.4">
@@ -6551,34 +6531,34 @@
         <v>40</v>
       </c>
       <c r="B126" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C126" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D126" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E126" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F126" t="s">
-        <v>61</v>
-      </c>
-      <c r="G126" t="s">
-        <v>60</v>
-      </c>
-      <c r="H126" t="s">
-        <v>60</v>
-      </c>
-      <c r="I126" t="s">
-        <v>60</v>
-      </c>
-      <c r="J126" t="s">
-        <v>60</v>
-      </c>
-      <c r="K126" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.4">
@@ -6586,34 +6566,34 @@
         <v>40</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C127" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D127" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E127" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F127" t="s">
-        <v>61</v>
-      </c>
-      <c r="G127" t="s">
-        <v>60</v>
-      </c>
-      <c r="H127" t="s">
-        <v>60</v>
-      </c>
-      <c r="I127" t="s">
-        <v>60</v>
-      </c>
-      <c r="J127" t="s">
-        <v>60</v>
-      </c>
-      <c r="K127" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
@@ -6621,34 +6601,34 @@
         <v>40</v>
       </c>
       <c r="B128" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C128" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D128" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E128" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F128" t="s">
-        <v>61</v>
-      </c>
-      <c r="G128" t="s">
-        <v>60</v>
-      </c>
-      <c r="H128" t="s">
-        <v>59</v>
-      </c>
-      <c r="I128" t="s">
-        <v>60</v>
-      </c>
-      <c r="J128" t="s">
-        <v>60</v>
-      </c>
-      <c r="K128" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.4">
@@ -6656,34 +6636,34 @@
         <v>40</v>
       </c>
       <c r="B129" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D129" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E129" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F129" t="s">
-        <v>61</v>
-      </c>
-      <c r="G129" t="s">
-        <v>60</v>
-      </c>
-      <c r="H129" t="s">
-        <v>60</v>
-      </c>
-      <c r="I129" t="s">
-        <v>60</v>
-      </c>
-      <c r="J129" t="s">
-        <v>60</v>
-      </c>
-      <c r="K129" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.4">
@@ -6691,34 +6671,34 @@
         <v>40</v>
       </c>
       <c r="B130" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C130" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D130" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E130" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F130" t="s">
-        <v>61</v>
-      </c>
-      <c r="G130" t="s">
-        <v>60</v>
-      </c>
-      <c r="H130" t="s">
-        <v>60</v>
-      </c>
-      <c r="I130" t="s">
-        <v>60</v>
-      </c>
-      <c r="J130" t="s">
-        <v>60</v>
-      </c>
-      <c r="K130" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.4">
@@ -6726,34 +6706,34 @@
         <v>43</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D131" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E131" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F131" t="s">
-        <v>61</v>
-      </c>
-      <c r="G131" t="s">
-        <v>58</v>
-      </c>
-      <c r="H131" t="s">
-        <v>60</v>
-      </c>
-      <c r="I131" t="s">
-        <v>60</v>
-      </c>
-      <c r="J131" t="s">
-        <v>60</v>
-      </c>
-      <c r="K131" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.4">
@@ -6761,34 +6741,34 @@
         <v>43</v>
       </c>
       <c r="B132" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C132" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E132" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F132" t="s">
-        <v>61</v>
-      </c>
-      <c r="G132" t="s">
-        <v>60</v>
-      </c>
-      <c r="H132" t="s">
-        <v>60</v>
-      </c>
-      <c r="I132" t="s">
-        <v>60</v>
-      </c>
-      <c r="J132" t="s">
-        <v>60</v>
-      </c>
-      <c r="K132" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.4">
@@ -6796,34 +6776,34 @@
         <v>43</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C133" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D133" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E133" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F133" t="s">
-        <v>61</v>
-      </c>
-      <c r="G133" t="s">
-        <v>60</v>
-      </c>
-      <c r="H133" t="s">
-        <v>60</v>
-      </c>
-      <c r="I133" t="s">
-        <v>60</v>
-      </c>
-      <c r="J133" t="s">
-        <v>60</v>
-      </c>
-      <c r="K133" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.4">
@@ -6831,34 +6811,34 @@
         <v>43</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D134" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E134" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F134" t="s">
-        <v>61</v>
-      </c>
-      <c r="G134" t="s">
-        <v>60</v>
-      </c>
-      <c r="H134" t="s">
-        <v>60</v>
-      </c>
-      <c r="I134" t="s">
-        <v>60</v>
-      </c>
-      <c r="J134" t="s">
-        <v>60</v>
-      </c>
-      <c r="K134" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.4">
@@ -6866,34 +6846,34 @@
         <v>43</v>
       </c>
       <c r="B135" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D135" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E135" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F135" t="s">
-        <v>61</v>
-      </c>
-      <c r="G135" t="s">
-        <v>60</v>
-      </c>
-      <c r="H135" t="s">
-        <v>60</v>
-      </c>
-      <c r="I135" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" t="s">
-        <v>60</v>
-      </c>
-      <c r="K135" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.4">
@@ -6901,34 +6881,34 @@
         <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D136" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E136" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F136" t="s">
-        <v>61</v>
-      </c>
-      <c r="G136" t="s">
-        <v>58</v>
-      </c>
-      <c r="H136" t="s">
-        <v>60</v>
-      </c>
-      <c r="I136" t="s">
-        <v>60</v>
-      </c>
-      <c r="J136" t="s">
-        <v>60</v>
-      </c>
-      <c r="K136" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.4">
@@ -6936,34 +6916,34 @@
         <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C137" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D137" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E137" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F137" t="s">
-        <v>61</v>
-      </c>
-      <c r="G137" t="s">
-        <v>60</v>
-      </c>
-      <c r="H137" t="s">
-        <v>60</v>
-      </c>
-      <c r="I137" t="s">
-        <v>60</v>
-      </c>
-      <c r="J137" t="s">
-        <v>60</v>
-      </c>
-      <c r="K137" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.4">
@@ -6971,34 +6951,34 @@
         <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C138" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D138" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E138" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F138" t="s">
-        <v>61</v>
-      </c>
-      <c r="G138" t="s">
-        <v>60</v>
-      </c>
-      <c r="H138" t="s">
-        <v>60</v>
-      </c>
-      <c r="I138" t="s">
-        <v>60</v>
-      </c>
-      <c r="J138" t="s">
-        <v>60</v>
-      </c>
-      <c r="K138" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.4">
@@ -7006,34 +6986,34 @@
         <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D139" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E139" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F139" t="s">
-        <v>61</v>
-      </c>
-      <c r="G139" t="s">
-        <v>60</v>
-      </c>
-      <c r="H139" t="s">
-        <v>60</v>
-      </c>
-      <c r="I139" t="s">
-        <v>60</v>
-      </c>
-      <c r="J139" t="s">
-        <v>60</v>
-      </c>
-      <c r="K139" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.4">
@@ -7041,34 +7021,34 @@
         <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C140" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D140" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E140" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F140" t="s">
-        <v>61</v>
-      </c>
-      <c r="G140" t="s">
-        <v>60</v>
-      </c>
-      <c r="H140" t="s">
-        <v>60</v>
-      </c>
-      <c r="I140" t="s">
-        <v>60</v>
-      </c>
-      <c r="J140" t="s">
-        <v>60</v>
-      </c>
-      <c r="K140" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.4">
@@ -7076,34 +7056,34 @@
         <v>38</v>
       </c>
       <c r="B141" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="C141" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D141" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E141" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F141" t="s">
-        <v>61</v>
-      </c>
-      <c r="G141" t="s">
-        <v>58</v>
-      </c>
-      <c r="H141" t="s">
-        <v>60</v>
-      </c>
-      <c r="I141" t="s">
-        <v>60</v>
-      </c>
-      <c r="J141" t="s">
-        <v>60</v>
-      </c>
-      <c r="K141" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.4">
@@ -7111,34 +7091,34 @@
         <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E142" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F142">
         <v>0</v>
       </c>
-      <c r="G142" t="s">
-        <v>60</v>
-      </c>
-      <c r="H142" t="s">
-        <v>60</v>
-      </c>
-      <c r="I142" t="s">
-        <v>60</v>
-      </c>
-      <c r="J142" t="s">
-        <v>60</v>
-      </c>
-      <c r="K142" t="s">
-        <v>60</v>
+      <c r="G142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.4">
@@ -7146,34 +7126,34 @@
         <v>38</v>
       </c>
       <c r="B143" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D143" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E143" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F143" t="s">
-        <v>61</v>
-      </c>
-      <c r="G143" t="s">
-        <v>60</v>
-      </c>
-      <c r="H143" t="s">
-        <v>60</v>
-      </c>
-      <c r="I143" t="s">
-        <v>60</v>
-      </c>
-      <c r="J143" t="s">
-        <v>60</v>
-      </c>
-      <c r="K143" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.4">
@@ -7181,253 +7161,248 @@
         <v>38</v>
       </c>
       <c r="B144" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C144" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D144" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E144" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F144" t="s">
-        <v>61</v>
-      </c>
-      <c r="G144" t="s">
-        <v>60</v>
-      </c>
-      <c r="H144" t="s">
-        <v>60</v>
-      </c>
-      <c r="I144" t="s">
-        <v>60</v>
-      </c>
-      <c r="J144" t="s">
-        <v>60</v>
-      </c>
-      <c r="K144" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B145" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C145" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D145" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E145" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F145" t="s">
-        <v>62</v>
-      </c>
-      <c r="G145" t="s">
-        <v>60</v>
-      </c>
-      <c r="H145" t="s">
-        <v>60</v>
-      </c>
-      <c r="I145" t="s">
-        <v>60</v>
-      </c>
-      <c r="J145" t="s">
-        <v>60</v>
-      </c>
-      <c r="K145" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B146" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C146" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D146" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E146" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F146" t="s">
-        <v>62</v>
-      </c>
-      <c r="G146" t="s">
-        <v>60</v>
-      </c>
-      <c r="H146" t="s">
-        <v>60</v>
-      </c>
-      <c r="I146" t="s">
-        <v>60</v>
-      </c>
-      <c r="J146" t="s">
-        <v>60</v>
-      </c>
-      <c r="K146" t="s">
         <v>59</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>321</v>
+      </c>
+      <c r="B147" t="s">
         <v>325</v>
       </c>
-      <c r="B147" t="s">
-        <v>329</v>
-      </c>
       <c r="C147" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D147" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E147" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F147" t="s">
-        <v>62</v>
-      </c>
-      <c r="G147" t="s">
-        <v>60</v>
-      </c>
-      <c r="H147" t="s">
-        <v>60</v>
-      </c>
-      <c r="I147" t="s">
-        <v>60</v>
-      </c>
-      <c r="J147" t="s">
-        <v>60</v>
-      </c>
-      <c r="K147" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B148" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C148" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D148" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E148" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F148" t="s">
-        <v>62</v>
-      </c>
-      <c r="G148" t="s">
-        <v>60</v>
-      </c>
-      <c r="H148" t="s">
-        <v>60</v>
-      </c>
-      <c r="I148" t="s">
-        <v>60</v>
-      </c>
-      <c r="J148" t="s">
-        <v>60</v>
-      </c>
-      <c r="K148" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B149" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D149" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E149" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F149" t="s">
-        <v>62</v>
-      </c>
-      <c r="G149" t="s">
-        <v>60</v>
-      </c>
-      <c r="H149" t="s">
-        <v>60</v>
-      </c>
-      <c r="I149" t="s">
-        <v>60</v>
-      </c>
-      <c r="J149" t="s">
-        <v>60</v>
-      </c>
-      <c r="K149" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B150" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C150" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D150" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E150" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F150" t="s">
-        <v>62</v>
-      </c>
-      <c r="G150" t="s">
-        <v>60</v>
-      </c>
-      <c r="H150" t="s">
-        <v>60</v>
-      </c>
-      <c r="I150" t="s">
-        <v>60</v>
-      </c>
-      <c r="J150" t="s">
-        <v>60</v>
-      </c>
-      <c r="K150" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:K1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
